--- a/jdocs/Stats/TimeTable Stats.xlsx
+++ b/jdocs/Stats/TimeTable Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="14160" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="14160" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Juergen Jung, Towson University</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Simple linear regression</t>
   </si>
   <si>
-    <t>Dummy variables</t>
-  </si>
-  <si>
     <t>Hypothesis testing: One-sample tests</t>
   </si>
   <si>
@@ -103,10 +100,19 @@
     <t>Tuesday</t>
   </si>
   <si>
-    <t>November 5, Wednesday withdraw with W</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
+    <t>Springbreak</t>
+  </si>
+  <si>
+    <t>Continuous distributions: T distribution</t>
+  </si>
+  <si>
+    <t>Dummy variable</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>April 10 Friday, withdraw with W</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,12 +236,82 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -252,7 +328,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F0F0F0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -531,27 +607,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -559,7 +635,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +644,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -588,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -596,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>41879</v>
+        <v>42031</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -610,19 +686,19 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B34" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" ref="B5:B33" si="0">B4+1</f>
-        <v>2</v>
-      </c>
       <c r="C5" s="5">
-        <v>41884</v>
+        <v>42033</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -633,7 +709,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>A4+1</f>
         <v>2</v>
@@ -644,11 +720,11 @@
       </c>
       <c r="C6" s="5">
         <f>C4+7</f>
-        <v>41886</v>
+        <v>42038</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>D4</f>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -659,10 +735,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" ref="A7:A34" si="1">A5+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
@@ -670,11 +746,11 @@
       </c>
       <c r="C7" s="5">
         <f>C5+7</f>
-        <v>41891</v>
+        <v>42040</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>D5</f>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -685,7 +761,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -696,11 +772,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:C34" si="2">C6+7</f>
-        <v>41893</v>
+        <v>42045</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ref="D8:D34" si="3">D6</f>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -711,10 +787,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
@@ -722,14 +798,14 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="2"/>
-        <v>41898</v>
+        <v>42047</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>15</v>
@@ -737,7 +813,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -748,11 +824,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="2"/>
-        <v>41900</v>
+        <v>42052</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
@@ -763,10 +839,10 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -774,11 +850,11 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="2"/>
-        <v>41905</v>
+        <v>42054</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -789,7 +865,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -800,11 +876,11 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="2"/>
-        <v>41907</v>
+        <v>42059</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -815,10 +891,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
@@ -826,22 +902,22 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="2"/>
-        <v>41912</v>
+        <v>42061</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -852,22 +928,23 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="2"/>
-        <v>41914</v>
+        <v>42066</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>6</v>
+        <v>Tuesday</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
@@ -875,22 +952,19 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="2"/>
-        <v>41919</v>
+        <v>42068</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="E15" s="3">
+        <v>Thursday</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -901,11 +975,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="2"/>
-        <v>41921</v>
+        <v>42073</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E16" s="3">
         <v>6</v>
@@ -916,10 +990,10 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
@@ -927,111 +1001,101 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="2"/>
-        <v>41926</v>
+        <v>42075</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="5">
         <f t="shared" si="2"/>
-        <v>41928</v>
+        <v>42080</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5">
+        <f t="shared" si="2"/>
+        <v>42082</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="2"/>
-        <v>41933</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="E19" s="3">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>B17+1</f>
+        <v>15</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="2"/>
-        <v>41935</v>
+        <v>42087</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E20" s="3">
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="2"/>
-        <v>41940</v>
+        <v>42089</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E21" s="3">
         <v>7</v>
@@ -1042,246 +1106,250 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="2"/>
+        <v>42094</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="2"/>
-        <v>41942</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="2"/>
+        <v>42096</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
+        <v>42101</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="5">
-        <f t="shared" si="2"/>
-        <v>41947</v>
-      </c>
-      <c r="D23" s="3" t="str">
+      <c r="C25" s="5">
+        <f t="shared" si="2"/>
+        <v>42103</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="2"/>
+        <v>42108</v>
+      </c>
+      <c r="D26" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="2"/>
-        <v>41949</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="2"/>
-        <v>41954</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="E25" s="3">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="2"/>
-        <v>41956</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Thursday</v>
       </c>
       <c r="E26" s="3">
         <v>8</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>13</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="2"/>
-        <v>41961</v>
+        <v>42110</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E27" s="3">
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="2"/>
-        <v>41963</v>
+        <v>42115</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E28" s="3">
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>14</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="2"/>
-        <v>41968</v>
+        <v>42117</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E29" s="3">
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="C30" s="5">
         <f t="shared" si="2"/>
-        <v>41970</v>
+        <v>42122</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="10" t="s">
-        <v>30</v>
+        <v>Tuesday</v>
+      </c>
+      <c r="E30" s="4">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B31" s="3">
-        <f>B29+1</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="2"/>
-        <v>41975</v>
+        <v>42124</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E31" s="4">
         <v>13</v>
@@ -1290,22 +1358,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="2"/>
-        <v>41977</v>
+        <v>42129</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Thursday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E32" s="4">
         <v>13</v>
@@ -1314,58 +1382,75 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="18">
+        <f t="shared" si="2"/>
+        <v>42131</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E33" s="4">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B34" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C33" s="15">
-        <f t="shared" si="2"/>
-        <v>41982</v>
-      </c>
-      <c r="D33" s="14" t="str">
+      <c r="C34" s="15">
+        <f t="shared" si="2"/>
+        <v>42136</v>
+      </c>
+      <c r="D34" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
-      </c>
-      <c r="E33" s="14">
-        <v>14</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
-        <f t="shared" si="2"/>
-        <v>41984</v>
-      </c>
-      <c r="D34" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>Thursday</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
